--- a/togvg.xlsx
+++ b/togvg.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atend" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="party" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="memlist" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copy" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mid" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="len" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="atend" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="party" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="memlist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="copy" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mid" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="len" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -728,173 +728,173 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>party1</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>青葉区</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ぶれっど</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>だいまおー</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ぎゅーにゅーおじいちゃん</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>minax</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>らふぃ</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>party2</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>メルローズ</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>mskl</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ぴぃ</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>咲良</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Tell1025</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>紫藍紅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>party3</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>陸遜</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ばればれ</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>バニラぷりん</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>DDdayomon</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>ライ</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>杏朱</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>party4</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>くろさけ</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>yukyu</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>カード</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>METER</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>bxugao</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>おさる</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>party5</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>clary</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Hanzou【Ｑ】</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr"/>
-      <c r="E6" s="0" t="inlineStr"/>
-      <c r="F6" s="0" t="inlineStr"/>
-      <c r="G6" s="0" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
